--- a/sample_data/acl-protocol-criteria-2025.xlsx
+++ b/sample_data/acl-protocol-criteria-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7077C780-3D90-9F4D-9C57-0FEC20D13BC5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F386A0-A365-B441-B378-7263EC8C3D17}"/>
   <bookViews>
     <workbookView xWindow="-3540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,9 +1071,6 @@
     <t>Additional Information</t>
   </si>
   <si>
-    <t>Measured in Supine with a long arm goniometer #</t>
-  </si>
-  <si>
     <t>Bony Landmarks: greater trochanter, lateral femoral condyle, lateral malleolus</t>
   </si>
   <si>
@@ -1084,9 +1081,6 @@
   </si>
   <si>
     <t>≥</t>
-  </si>
-  <si>
-    <t>Stroke test (Sturgill et al, 2009)</t>
   </si>
   <si>
     <t>Zero: No wave produced on downstroke   
@@ -1105,12 +1099,6 @@
     <t>Isometric Strength at 90°</t>
   </si>
   <si>
-    <t>Seated with hip and knees flexed at 90Isometric Strength at 90°.  Dynamometer placed on the anterior aspect of the shank, proximal to the ankle joint.</t>
-  </si>
-  <si>
-    <t>Seated with hip and knees flexed at 90Isometric Strength at 90°.  Dynamometer placed on the posterior aspect of the shank, proximal to the ankle joint.</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -1169,6 +1157,18 @@
   </si>
   <si>
     <t>Swelling</t>
+  </si>
+  <si>
+    <t>Stroke test [@sturgill2009]</t>
+  </si>
+  <si>
+    <t>Seated with hip and knees flexed at 90°.  Dynamometer placed on the anterior aspect of the shank, proximal to the ankle joint.</t>
+  </si>
+  <si>
+    <t>Seated with hip and knees flexed 90°.  Dynamometer placed on the posterior aspect of the shank, proximal to the ankle joint.</t>
+  </si>
+  <si>
+    <t>Measured in Supine with a long arm goniometer</t>
   </si>
 </sst>
 </file>
@@ -1179,11 +1179,25 @@
     <numFmt numFmtId="164" formatCode="mmm\ d/yy"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1591,247 +1605,256 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,10 +2120,10 @@
       <c r="B2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2158,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="98" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="14"/>
@@ -2191,7 +2214,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="91"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="R5" s="20">
@@ -2219,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="91"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="R6" s="20">
@@ -2243,7 +2266,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="91"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="S7" s="21"/>
@@ -2266,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="91"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="R8" s="20">
@@ -2294,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="91"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="R9" s="20">
@@ -2380,10 +2403,10 @@
       <c r="B15" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="1"/>
       <c r="H15" s="25" t="s">
         <v>34</v>
@@ -2438,24 +2461,24 @@
       <c r="G16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="94">
         <v>45359</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="103">
+      <c r="I16" s="95"/>
+      <c r="J16" s="96">
         <v>47204</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="104" t="s">
+      <c r="K16" s="95"/>
+      <c r="L16" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="102">
+      <c r="M16" s="95"/>
+      <c r="N16" s="94">
         <v>45429</v>
       </c>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="101"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
       <c r="R16" s="20">
         <v>1</v>
       </c>
@@ -2529,7 +2552,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="98" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="31"/>
@@ -2573,7 +2596,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="91"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="36"/>
       <c r="I19" s="37">
         <v>45325</v>
@@ -2611,7 +2634,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="91"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="36">
         <v>39</v>
       </c>
@@ -2657,7 +2680,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="91"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="31"/>
       <c r="I21" s="34" t="s">
         <v>52</v>
@@ -2693,7 +2716,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="91"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="31"/>
       <c r="I22" s="34" t="s">
         <v>52</v>
@@ -2731,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="91"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="36"/>
       <c r="I23" s="38">
         <v>91</v>
@@ -2771,7 +2794,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="91"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="31" t="s">
         <v>60</v>
       </c>
@@ -2965,10 +2988,10 @@
       <c r="B32" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="1"/>
       <c r="H32" s="42" t="s">
         <v>34</v>
@@ -3013,12 +3036,12 @@
       <c r="G33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="100" t="s">
+      <c r="H33" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="101"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -3043,7 +3066,7 @@
         <v>22</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="98" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="44"/>
@@ -3074,7 +3097,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="91"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
       <c r="J35" s="48"/>
@@ -3103,7 +3126,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="91"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="44"/>
       <c r="I36" s="45"/>
       <c r="J36" s="44"/>
@@ -3132,7 +3155,7 @@
         <v>77</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="91"/>
+      <c r="G37" s="93"/>
       <c r="H37" s="48"/>
       <c r="I37" s="49"/>
       <c r="J37" s="48"/>
@@ -3161,7 +3184,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="91"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
       <c r="J38" s="44"/>
@@ -3182,7 +3205,7 @@
         <v>81</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="91"/>
+      <c r="G39" s="93"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
       <c r="J39" s="44"/>
@@ -3211,7 +3234,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="91"/>
+      <c r="G40" s="93"/>
       <c r="H40" s="48"/>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
@@ -3232,7 +3255,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="12"/>
-      <c r="G41" s="91"/>
+      <c r="G41" s="93"/>
       <c r="H41" s="48"/>
       <c r="I41" s="49"/>
       <c r="J41" s="48"/>
@@ -3261,7 +3284,7 @@
         <v>80</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="91"/>
+      <c r="G42" s="93"/>
       <c r="H42" s="44"/>
       <c r="I42" s="45"/>
       <c r="J42" s="44"/>
@@ -3282,7 +3305,7 @@
         <v>86</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="91"/>
+      <c r="G43" s="93"/>
       <c r="H43" s="55" t="s">
         <v>87</v>
       </c>
@@ -3305,17 +3328,17 @@
       <c r="B44" s="16">
         <v>8</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="94" t="s">
+      <c r="D44" s="100" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="91"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="48"/>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
@@ -3330,13 +3353,13 @@
     <row r="45" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="12"/>
-      <c r="G45" s="91"/>
+      <c r="G45" s="93"/>
       <c r="H45" s="48"/>
       <c r="I45" s="49"/>
       <c r="J45" s="48"/>
@@ -3365,7 +3388,7 @@
         <v>92</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="91"/>
+      <c r="G46" s="93"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
       <c r="J46" s="44"/>
@@ -3386,7 +3409,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="91"/>
+      <c r="G47" s="93"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
       <c r="J47" s="44"/>
@@ -3415,7 +3438,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="91"/>
+      <c r="G48" s="93"/>
       <c r="H48" s="48"/>
       <c r="I48" s="49"/>
       <c r="J48" s="48"/>
@@ -3444,7 +3467,7 @@
         <v>96</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="91"/>
+      <c r="G49" s="93"/>
       <c r="H49" s="44"/>
       <c r="I49" s="45"/>
       <c r="J49" s="44"/>
@@ -3471,7 +3494,7 @@
         <v>101</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="91"/>
+      <c r="G50" s="93"/>
       <c r="H50" s="48"/>
       <c r="I50" s="49"/>
       <c r="J50" s="48"/>
@@ -3567,10 +3590,10 @@
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="90">
+      <c r="B54" s="105">
         <v>16</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="106" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="17"/>
@@ -3591,8 +3614,8 @@
     </row>
     <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="17"/>
       <c r="E55" s="18"/>
       <c r="F55" s="12"/>
@@ -3611,10 +3634,10 @@
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="96">
+      <c r="B56" s="101">
         <v>17</v>
       </c>
-      <c r="C56" s="98" t="s">
+      <c r="C56" s="103" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="57"/>
@@ -3636,8 +3659,8 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="99"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
@@ -3657,10 +3680,10 @@
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="105">
         <v>18</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="106" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="17"/>
@@ -3681,8 +3704,8 @@
     </row>
     <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="17"/>
       <c r="E59" s="18"/>
       <c r="F59" s="12"/>
@@ -3701,10 +3724,10 @@
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="96">
+      <c r="B60" s="101">
         <v>19</v>
       </c>
-      <c r="C60" s="98" t="s">
+      <c r="C60" s="103" t="s">
         <v>114</v>
       </c>
       <c r="D60" s="57"/>
@@ -3726,8 +3749,8 @@
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="99"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
@@ -3747,7 +3770,7 @@
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="90">
+      <c r="B62" s="105">
         <v>20</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -3771,7 +3794,7 @@
     </row>
     <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="91"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
@@ -3950,10 +3973,10 @@
       <c r="B74" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
       <c r="G74" s="1"/>
       <c r="H74" s="42" t="s">
         <v>34</v>
@@ -4032,7 +4055,7 @@
       <c r="F76" s="67">
         <v>1</v>
       </c>
-      <c r="G76" s="93" t="s">
+      <c r="G76" s="98" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="31">
@@ -4059,7 +4082,7 @@
       <c r="F77" s="67">
         <v>2</v>
       </c>
-      <c r="G77" s="91"/>
+      <c r="G77" s="93"/>
       <c r="H77" s="31">
         <v>141</v>
       </c>
@@ -4084,7 +4107,7 @@
       <c r="F78" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="G78" s="91"/>
+      <c r="G78" s="93"/>
       <c r="H78" s="31">
         <f t="shared" ref="H78:I78" si="0">AVERAGE(H76:H77)</f>
         <v>127</v>
@@ -4111,7 +4134,7 @@
       <c r="F79" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="G79" s="91"/>
+      <c r="G79" s="93"/>
       <c r="H79" s="70">
         <f>I78/H78</f>
         <v>0.59842519685039375</v>
@@ -4143,7 +4166,7 @@
         <v>126</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="91"/>
+      <c r="G80" s="93"/>
       <c r="H80" s="36"/>
       <c r="I80" s="38"/>
       <c r="J80" s="74"/>
@@ -4172,7 +4195,7 @@
         <v>126</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="91"/>
+      <c r="G81" s="93"/>
       <c r="H81" s="31"/>
       <c r="I81" s="34"/>
       <c r="J81" s="72"/>
@@ -4201,7 +4224,7 @@
         <v>126</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="91"/>
+      <c r="G82" s="93"/>
       <c r="H82" s="36"/>
       <c r="I82" s="38"/>
       <c r="J82" s="74"/>
@@ -4230,7 +4253,7 @@
         <v>134</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="91"/>
+      <c r="G83" s="93"/>
       <c r="H83" s="31"/>
       <c r="I83" s="34"/>
       <c r="J83" s="72"/>
@@ -4259,7 +4282,7 @@
         <v>126</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="91"/>
+      <c r="G84" s="93"/>
       <c r="H84" s="36"/>
       <c r="I84" s="38"/>
       <c r="J84" s="74"/>
@@ -4288,7 +4311,7 @@
         <v>138</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="91"/>
+      <c r="G85" s="93"/>
       <c r="H85" s="31"/>
       <c r="I85" s="34"/>
       <c r="J85" s="72"/>
@@ -4317,7 +4340,7 @@
         <v>140</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="91"/>
+      <c r="G86" s="93"/>
       <c r="H86" s="36"/>
       <c r="I86" s="38"/>
       <c r="J86" s="74"/>
@@ -4346,7 +4369,7 @@
         <v>140</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="91"/>
+      <c r="G87" s="93"/>
       <c r="H87" s="31"/>
       <c r="I87" s="34"/>
       <c r="J87" s="72"/>
@@ -8092,22 +8115,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G34:G50"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="G76:G87"/>
@@ -8118,6 +8125,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G34:G50"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8130,7 +8153,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="103" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8156,16 +8179,16 @@
         <v>149</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>145</v>
@@ -8174,34 +8197,34 @@
         <v>144</v>
       </c>
       <c r="J1" s="79" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K1" s="79" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L1" s="79" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>151</v>
       </c>
       <c r="D2" s="81">
         <v>1</v>
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="81" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H2" s="78" t="s">
         <v>8</v>
@@ -8223,24 +8246,24 @@
       <c r="A3" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="81" t="s">
         <v>150</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>151</v>
       </c>
       <c r="D3" s="81">
         <v>1</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="80" t="s">
         <v>124</v>
@@ -8256,20 +8279,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>156</v>
+      <c r="A4" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>154</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
       <c r="F4" s="85"/>
       <c r="G4" s="77" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" s="78">
         <v>1</v>
@@ -8289,25 +8312,25 @@
     </row>
     <row r="5" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>160</v>
+      <c r="C5" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="D5" s="81">
         <v>2</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H5" s="84">
         <v>0.9</v>
@@ -8321,25 +8344,25 @@
     </row>
     <row r="6" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>180</v>
       </c>
       <c r="D6" s="81">
         <v>2</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F6" s="81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H6" s="84">
         <v>0.9</v>
@@ -8353,25 +8376,25 @@
     </row>
     <row r="7" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="78" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D7" s="81">
         <v>2</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F7" s="81" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="84">
         <v>0.9</v>
@@ -8404,18 +8427,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">

--- a/sample_data/acl-protocol-criteria-2025.xlsx
+++ b/sample_data/acl-protocol-criteria-2025.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F386A0-A365-B441-B378-7263EC8C3D17}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA69C0A-8065-B140-98EA-00CA26F7B59D}"/>
   <bookViews>
-    <workbookView xWindow="-3540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Phase0" sheetId="2" r:id="rId2"/>
-    <sheet name="Calcs" sheetId="3" r:id="rId3"/>
+    <sheet name="criteria_full" sheetId="5" r:id="rId3"/>
+    <sheet name="phase0_collect" sheetId="4" r:id="rId4"/>
+    <sheet name="calcs" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -231,15 +233,127 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Andrew K:
-﻿Stroke Test (Sturgill et al, 2009) 
-Zero: No wave produced on downstroke 
-Trace: Small wave on medial side with downstroke 
-1+: Large bulge on medial side with downstroke 
-2+: Effusion spontaneously returns to medial side after upstroke
-3+: So much fluid that it is not possible to move the effusion out of the medial aspect of the knee</t>
+          <t xml:space="preserve">Andrew K:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>﻿</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Stroke Test (Sturgill et al, 2009) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Zero: No wave produced on downstroke 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Trace: Small wave on medial side with downstroke 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1+: Large bulge on medial side with downstroke 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2+: Effusion spontaneously returns to medial side after upstroke
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>3+: So much fluid that it is not possible to move the effusion out of the medial aspect of the knee</t>
         </r>
       </text>
     </comment>
@@ -251,10 +365,18 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Andrew K:
-Patient sitting on edge of table, Therapist takes the relaxed knee into full passive extension. Patient is then required to maintain full active extension of the knee when the therapist removes support</t>
+          <t xml:space="preserve">Andrew K:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patient sitting on edge of table, Therapist takes the relaxed knee into full passive extension. Patient is then required to maintain full active extension of the knee when the therapist removes support</t>
         </r>
       </text>
     </comment>
@@ -442,11 +564,47 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Andrew K:
-﻿This test can be performed in most commercial gymnasiums that have a 45 degree incline leg press. Please ensure an appropriate warm up.
-Seat position is at 90 degrees to the slide, and the foot should be placed so that the hip is flexed to 90 degrees. A valid repetition is where the weight is lowered to a depth of 90 degrees knee flexion and then extended back to full knee extension.</t>
+          <t xml:space="preserve">Andrew K:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>﻿</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This test can be performed in most commercial gymnasiums that have a 45 degree incline leg press. Please ensure an appropriate warm up.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Seat position is at 90 degrees to the slide, and the foot should be placed so that the hip is flexed to 90 degrees. A valid repetition is where the weight is lowered to a depth of 90 degrees knee flexion and then extended back to full knee extension.</t>
         </r>
       </text>
     </comment>
@@ -619,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="225">
   <si>
     <t>Phase 0: Pre Surgery</t>
   </si>
@@ -1135,9 +1293,6 @@
     <t>Outcome Metric</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -1169,6 +1324,138 @@
   </si>
   <si>
     <t>Measured in Supine with a long arm goniometer</t>
+  </si>
+  <si>
+    <t>Mean of all reps</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Involved_1</t>
+  </si>
+  <si>
+    <t>Involved_2</t>
+  </si>
+  <si>
+    <t>Involved_3</t>
+  </si>
+  <si>
+    <t>Involved_4</t>
+  </si>
+  <si>
+    <t>Involved_5</t>
+  </si>
+  <si>
+    <t>Uninvolved_1</t>
+  </si>
+  <si>
+    <t>Uninvolved_2</t>
+  </si>
+  <si>
+    <t>Uninvolved_3</t>
+  </si>
+  <si>
+    <t>Uninvolved_4</t>
+  </si>
+  <si>
+    <t>Uninvolved_5</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Quads Lag Test</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>SL Balance Test</t>
+  </si>
+  <si>
+    <t>SL Squat Quality</t>
+  </si>
+  <si>
+    <t>SL Squat Endurance</t>
+  </si>
+  <si>
+    <t>SL Bridge</t>
+  </si>
+  <si>
+    <t>SL Heel Raises</t>
+  </si>
+  <si>
+    <t>Est. 1RM Squat</t>
+  </si>
+  <si>
+    <t>Y-Balance Anterior</t>
+  </si>
+  <si>
+    <t>Y-Balance Posteromedial</t>
+  </si>
+  <si>
+    <t>Y-Balance Posterolateral</t>
+  </si>
+  <si>
+    <t>reps</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>%BM</t>
+  </si>
+  <si>
+    <t>﻿Subjects lie prone on a treatment bed with the lower legs off the end allowing full passive knee extension. The heel height difference is measured (approx 1cm = 1°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The patient is then required to maintain full active extension of the knee when the therapist removes support.</t>
+  </si>
+  <si>
+    <t>With the patient sitting on the edge of a treatment bed, the therapist takes the relaxed knee into full passive extension.</t>
+  </si>
+  <si>
+    <t>﻿Subjects lie supine on the floor with one heel on a box or plinth at 60cm high. The knee of the test leg is slightly bent at 20° and opposite leg is bent to 90° hip and knee flexion with their arms crossed over chest. Subjects elevate the hips as high as possible and the assessor places a hand at this height. Repeat this action as many times as possible touching the assessors hand each time. The test concludes when the subject is unable to bridge to the original height (assessors hand but lets use an actual target).</t>
+  </si>
+  <si>
+    <t>﻿Subjects stand on one foot on the edge of the step and perform a calf raise through full range of motion. Calf raises are performed at 1 repetition every 2 seconds. The test concludes when subjects are unable to move through full range or slow below the cadence outlined above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Subjects stand on one leg with other leg raised and arms crossed over the chest. The assessor uses a stopwatch to time how long stance is maintained on one leg with a) eyes open, and b) eyes closed. </t>
+  </si>
+  <si>
+    <t>Time ends when; Arms are used (uncrossed) /  Use of the raised foot (touches down or other leg)  / Movement of the stance foot  / 45 secs has elapsed (maximum time)  / Eyes opened on eyes closed trials</t>
+  </si>
+  <si>
+    <t>Seat position is at 90 degrees to the slide, and the foot should be placed so that the hip is flexed to 90 degrees. A valid repetition is where the weight is lowered to a depth of 90 degrees knee flexion and then extended back to full knee extension.</t>
+  </si>
+  <si>
+    <t>1RM Squat squat to 90 deg knee flexion</t>
+  </si>
+  <si>
+    <t>she cannot squat 1.5x BM pre injury. Max back squat = 80kg at 70kg BM</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1179,11 +1466,18 @@
     <numFmt numFmtId="164" formatCode="mmm\ d/yy"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1367,8 +1661,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,6 +1725,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1605,259 +1927,298 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2077,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1013"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2117,13 +2478,13 @@
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2181,7 +2542,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="119" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="14"/>
@@ -2214,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="93"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="R5" s="20">
@@ -2242,7 +2603,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="93"/>
+      <c r="G6" s="114"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="R6" s="20">
@@ -2266,7 +2627,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="93"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="S7" s="21"/>
@@ -2289,7 +2650,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="93"/>
+      <c r="G8" s="114"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="R8" s="20">
@@ -2317,7 +2678,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="93"/>
+      <c r="G9" s="114"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="R9" s="20">
@@ -2400,13 +2761,13 @@
     </row>
     <row r="15" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="1"/>
       <c r="H15" s="25" t="s">
         <v>34</v>
@@ -2461,24 +2822,24 @@
       <c r="G16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="115">
         <v>45359</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96">
+      <c r="I16" s="116"/>
+      <c r="J16" s="117">
         <v>47204</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="97" t="s">
+      <c r="K16" s="116"/>
+      <c r="L16" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="95"/>
-      <c r="N16" s="94">
+      <c r="M16" s="116"/>
+      <c r="N16" s="115">
         <v>45429</v>
       </c>
-      <c r="O16" s="95"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
       <c r="R16" s="20">
         <v>1</v>
       </c>
@@ -2552,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="119" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="31"/>
@@ -2596,7 +2957,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="93"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="36"/>
       <c r="I19" s="37">
         <v>45325</v>
@@ -2634,7 +2995,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="93"/>
+      <c r="G20" s="114"/>
       <c r="H20" s="36">
         <v>39</v>
       </c>
@@ -2680,7 +3041,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="93"/>
+      <c r="G21" s="114"/>
       <c r="H21" s="31"/>
       <c r="I21" s="34" t="s">
         <v>52</v>
@@ -2716,7 +3077,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="93"/>
+      <c r="G22" s="114"/>
       <c r="H22" s="31"/>
       <c r="I22" s="34" t="s">
         <v>52</v>
@@ -2754,7 +3115,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="93"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="36"/>
       <c r="I23" s="38">
         <v>91</v>
@@ -2794,7 +3155,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="93"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="31" t="s">
         <v>60</v>
       </c>
@@ -2985,13 +3346,13 @@
     </row>
     <row r="32" spans="1:22" ht="23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="1"/>
       <c r="H32" s="42" t="s">
         <v>34</v>
@@ -3036,12 +3397,12 @@
       <c r="G33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="99" t="s">
+      <c r="H33" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="95"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="116"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -3066,7 +3427,7 @@
         <v>22</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="119" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="44"/>
@@ -3097,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="93"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
       <c r="J35" s="48"/>
@@ -3126,7 +3487,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="93"/>
+      <c r="G36" s="114"/>
       <c r="H36" s="44"/>
       <c r="I36" s="45"/>
       <c r="J36" s="44"/>
@@ -3155,7 +3516,7 @@
         <v>77</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="93"/>
+      <c r="G37" s="114"/>
       <c r="H37" s="48"/>
       <c r="I37" s="49"/>
       <c r="J37" s="48"/>
@@ -3184,7 +3545,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="93"/>
+      <c r="G38" s="114"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
       <c r="J38" s="44"/>
@@ -3205,7 +3566,7 @@
         <v>81</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="93"/>
+      <c r="G39" s="114"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
       <c r="J39" s="44"/>
@@ -3234,7 +3595,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="93"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="48"/>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
@@ -3255,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="12"/>
-      <c r="G41" s="93"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="48"/>
       <c r="I41" s="49"/>
       <c r="J41" s="48"/>
@@ -3284,7 +3645,7 @@
         <v>80</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="93"/>
+      <c r="G42" s="114"/>
       <c r="H42" s="44"/>
       <c r="I42" s="45"/>
       <c r="J42" s="44"/>
@@ -3305,7 +3666,7 @@
         <v>86</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="93"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="55" t="s">
         <v>87</v>
       </c>
@@ -3328,17 +3689,17 @@
       <c r="B44" s="16">
         <v>8</v>
       </c>
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="100" t="s">
+      <c r="D44" s="121" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="93"/>
+      <c r="G44" s="114"/>
       <c r="H44" s="48"/>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
@@ -3353,13 +3714,13 @@
     <row r="45" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="12"/>
-      <c r="G45" s="93"/>
+      <c r="G45" s="114"/>
       <c r="H45" s="48"/>
       <c r="I45" s="49"/>
       <c r="J45" s="48"/>
@@ -3388,7 +3749,7 @@
         <v>92</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="93"/>
+      <c r="G46" s="114"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
       <c r="J46" s="44"/>
@@ -3409,7 +3770,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="93"/>
+      <c r="G47" s="114"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
       <c r="J47" s="44"/>
@@ -3438,7 +3799,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="93"/>
+      <c r="G48" s="114"/>
       <c r="H48" s="48"/>
       <c r="I48" s="49"/>
       <c r="J48" s="48"/>
@@ -3467,7 +3828,7 @@
         <v>96</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="93"/>
+      <c r="G49" s="114"/>
       <c r="H49" s="44"/>
       <c r="I49" s="45"/>
       <c r="J49" s="44"/>
@@ -3494,7 +3855,7 @@
         <v>101</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="93"/>
+      <c r="G50" s="114"/>
       <c r="H50" s="48"/>
       <c r="I50" s="49"/>
       <c r="J50" s="48"/>
@@ -3590,10 +3951,10 @@
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="105">
+      <c r="B54" s="126">
         <v>16</v>
       </c>
-      <c r="C54" s="106" t="s">
+      <c r="C54" s="127" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="17"/>
@@ -3614,8 +3975,8 @@
     </row>
     <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="17"/>
       <c r="E55" s="18"/>
       <c r="F55" s="12"/>
@@ -3634,10 +3995,10 @@
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="101">
+      <c r="B56" s="122">
         <v>17</v>
       </c>
-      <c r="C56" s="103" t="s">
+      <c r="C56" s="124" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="57"/>
@@ -3659,8 +4020,8 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
@@ -3680,10 +4041,10 @@
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="105">
+      <c r="B58" s="126">
         <v>18</v>
       </c>
-      <c r="C58" s="106" t="s">
+      <c r="C58" s="127" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="17"/>
@@ -3704,8 +4065,8 @@
     </row>
     <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="17"/>
       <c r="E59" s="18"/>
       <c r="F59" s="12"/>
@@ -3724,10 +4085,10 @@
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="101">
+      <c r="B60" s="122">
         <v>19</v>
       </c>
-      <c r="C60" s="103" t="s">
+      <c r="C60" s="124" t="s">
         <v>114</v>
       </c>
       <c r="D60" s="57"/>
@@ -3749,8 +4110,8 @@
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="125"/>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
@@ -3770,7 +4131,7 @@
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="105">
+      <c r="B62" s="126">
         <v>20</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -3794,7 +4155,7 @@
     </row>
     <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="93"/>
+      <c r="B63" s="114"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
@@ -3970,13 +4331,13 @@
     </row>
     <row r="74" spans="1:17" ht="23" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="93"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
       <c r="G74" s="1"/>
       <c r="H74" s="42" t="s">
         <v>34</v>
@@ -4055,7 +4416,7 @@
       <c r="F76" s="67">
         <v>1</v>
       </c>
-      <c r="G76" s="98" t="s">
+      <c r="G76" s="119" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="31">
@@ -4082,7 +4443,7 @@
       <c r="F77" s="67">
         <v>2</v>
       </c>
-      <c r="G77" s="93"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="31">
         <v>141</v>
       </c>
@@ -4107,7 +4468,7 @@
       <c r="F78" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="G78" s="93"/>
+      <c r="G78" s="114"/>
       <c r="H78" s="31">
         <f t="shared" ref="H78:I78" si="0">AVERAGE(H76:H77)</f>
         <v>127</v>
@@ -4134,7 +4495,7 @@
       <c r="F79" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="G79" s="93"/>
+      <c r="G79" s="114"/>
       <c r="H79" s="70">
         <f>I78/H78</f>
         <v>0.59842519685039375</v>
@@ -4166,7 +4527,7 @@
         <v>126</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="93"/>
+      <c r="G80" s="114"/>
       <c r="H80" s="36"/>
       <c r="I80" s="38"/>
       <c r="J80" s="74"/>
@@ -4195,7 +4556,7 @@
         <v>126</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="93"/>
+      <c r="G81" s="114"/>
       <c r="H81" s="31"/>
       <c r="I81" s="34"/>
       <c r="J81" s="72"/>
@@ -4224,7 +4585,7 @@
         <v>126</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="93"/>
+      <c r="G82" s="114"/>
       <c r="H82" s="36"/>
       <c r="I82" s="38"/>
       <c r="J82" s="74"/>
@@ -4253,7 +4614,7 @@
         <v>134</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="93"/>
+      <c r="G83" s="114"/>
       <c r="H83" s="31"/>
       <c r="I83" s="34"/>
       <c r="J83" s="72"/>
@@ -4282,7 +4643,7 @@
         <v>126</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="93"/>
+      <c r="G84" s="114"/>
       <c r="H84" s="36"/>
       <c r="I84" s="38"/>
       <c r="J84" s="74"/>
@@ -4311,7 +4672,7 @@
         <v>138</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="93"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="31"/>
       <c r="I85" s="34"/>
       <c r="J85" s="72"/>
@@ -4340,7 +4701,7 @@
         <v>140</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="93"/>
+      <c r="G86" s="114"/>
       <c r="H86" s="36"/>
       <c r="I86" s="38"/>
       <c r="J86" s="74"/>
@@ -4369,7 +4730,7 @@
         <v>140</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="93"/>
+      <c r="G87" s="114"/>
       <c r="H87" s="31"/>
       <c r="I87" s="34"/>
       <c r="J87" s="72"/>
@@ -8150,10 +8511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BCD22-E77C-B24F-9D1C-5A5951400677}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="103" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8161,14 +8522,16 @@
     <col min="1" max="1" width="27.1640625" style="80" customWidth="1"/>
     <col min="2" max="2" width="51" style="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.33203125" style="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.33203125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="83" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="83" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="80"/>
-    <col min="9" max="9" width="24" style="80" customWidth="1"/>
+    <col min="7" max="7" width="10" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="79" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="79" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="79" t="s">
         <v>143</v>
       </c>
@@ -8197,21 +8560,33 @@
         <v>144</v>
       </c>
       <c r="J1" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="L1" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="108" t="s">
+      <c r="M1" s="95">
+        <v>45839</v>
+      </c>
+      <c r="N1" s="95">
+        <v>45853</v>
+      </c>
+      <c r="O1" s="95">
+        <v>45870</v>
+      </c>
+      <c r="P1" s="95">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>181</v>
+      <c r="B2" s="92" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>150</v>
@@ -8221,10 +8596,10 @@
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="77" t="s">
         <v>172</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>173</v>
       </c>
       <c r="H2" s="78" t="s">
         <v>8</v>
@@ -8242,12 +8617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="107" t="s">
-        <v>181</v>
+      <c r="B3" s="92" t="s">
+        <v>180</v>
       </c>
       <c r="C3" s="81" t="s">
         <v>150</v>
@@ -8257,7 +8632,7 @@
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>153</v>
@@ -8277,13 +8652,25 @@
       <c r="L3" s="80">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="80">
+        <v>110</v>
+      </c>
+      <c r="N3" s="80">
+        <v>116</v>
+      </c>
+      <c r="O3" s="80">
+        <v>120</v>
+      </c>
+      <c r="P3" s="80">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>178</v>
       </c>
       <c r="C4" s="91" t="s">
         <v>154</v>
@@ -8292,7 +8679,7 @@
       <c r="E4" s="81"/>
       <c r="F4" s="85"/>
       <c r="G4" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="78">
         <v>1</v>
@@ -8310,21 +8697,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>179</v>
+      <c r="C5" s="92" t="s">
+        <v>178</v>
       </c>
       <c r="D5" s="81">
         <v>2</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="81" t="s">
         <v>160</v>
@@ -8342,21 +8729,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="78" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>180</v>
+      <c r="C6" s="92" t="s">
+        <v>179</v>
       </c>
       <c r="D6" s="81">
         <v>2</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="81" t="s">
         <v>160</v>
@@ -8374,7 +8761,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="78" t="s">
         <v>162</v>
       </c>
@@ -8387,8 +8774,8 @@
       <c r="D7" s="81">
         <v>2</v>
       </c>
-      <c r="E7" s="81" t="s">
-        <v>170</v>
+      <c r="E7" s="94" t="s">
+        <v>181</v>
       </c>
       <c r="F7" s="81" t="s">
         <v>161</v>
@@ -8412,6 +8799,1646 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3C897E-C35E-744B-BB5A-048B2D3C5B40}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="100"/>
+    <col min="2" max="2" width="23.5" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="99"/>
+    <col min="4" max="4" width="73.1640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100">
+        <v>0</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="100">
+        <v>0</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="100">
+        <v>0</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="100">
+        <v>0</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="100">
+        <v>0</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="100">
+        <v>0</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100">
+        <v>1</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="100">
+        <v>1</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="100">
+        <v>1</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="100">
+        <v>1</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="100">
+        <v>2</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="100">
+        <v>2</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="100">
+        <v>2</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="100">
+        <v>2</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="81"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="100">
+        <v>2</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="100">
+        <v>2</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="100">
+        <v>2</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="100">
+        <v>2</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="100">
+        <v>2</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="100">
+        <v>2</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="100">
+        <v>2</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="81"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="100">
+        <v>2</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="92"/>
+      <c r="E23" s="81"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="100">
+        <v>2</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="92"/>
+      <c r="E24" s="81"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="100">
+        <v>2</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="100">
+        <v>2</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A129E5C-0389-B74D-99E5-9562F8E3B4E4}">
+  <dimension ref="A1:M110"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="100">
+        <v>1</v>
+      </c>
+      <c r="C2" s="101">
+        <v>45839</v>
+      </c>
+      <c r="D2" s="100">
+        <v>102</v>
+      </c>
+      <c r="E2" s="100">
+        <v>125</v>
+      </c>
+      <c r="I2" s="100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="100">
+        <v>2</v>
+      </c>
+      <c r="C3" s="101">
+        <v>45853</v>
+      </c>
+      <c r="D3" s="100">
+        <v>107</v>
+      </c>
+      <c r="E3" s="100">
+        <v>125</v>
+      </c>
+      <c r="I3" s="100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="100">
+        <v>3</v>
+      </c>
+      <c r="C4" s="101">
+        <v>45870</v>
+      </c>
+      <c r="D4" s="100">
+        <v>115</v>
+      </c>
+      <c r="E4" s="100">
+        <v>125</v>
+      </c>
+      <c r="I4" s="100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="100">
+        <v>4</v>
+      </c>
+      <c r="C5" s="101">
+        <v>45884</v>
+      </c>
+      <c r="D5" s="100">
+        <v>121</v>
+      </c>
+      <c r="E5" s="100">
+        <v>125</v>
+      </c>
+      <c r="I5" s="100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="100">
+        <v>5</v>
+      </c>
+      <c r="C6" s="101">
+        <v>45901</v>
+      </c>
+      <c r="D6" s="100">
+        <v>126</v>
+      </c>
+      <c r="E6" s="100">
+        <v>125</v>
+      </c>
+      <c r="I6" s="100">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="100">
+        <v>9</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+    </row>
+    <row r="11" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="100">
+        <v>10</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+    </row>
+    <row r="12" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="100">
+        <v>11</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+    </row>
+    <row r="13" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="100">
+        <v>12</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+    </row>
+    <row r="14" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="100">
+        <v>13</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="100">
+        <v>14</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="100">
+        <v>15</v>
+      </c>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="104"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="100">
+        <v>1</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="100">
+        <v>2</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="100">
+        <v>3</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="100">
+        <v>4</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="100">
+        <v>5</v>
+      </c>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="100">
+        <v>6</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+    </row>
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="100">
+        <v>7</v>
+      </c>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="100">
+        <v>8</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="100">
+        <v>9</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="100">
+        <v>10</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="100">
+        <v>11</v>
+      </c>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="100">
+        <v>12</v>
+      </c>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="100">
+        <v>13</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="100">
+        <v>14</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+    </row>
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="100">
+        <v>15</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="102"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="102"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="102"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="102"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="102"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="102"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="102"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="102"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="102"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="102"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="102"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="102"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="102"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="102"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="102"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="102"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="102"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="102"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="102"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+    </row>
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="102"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="102"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+    </row>
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="102"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+    </row>
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="102"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+    </row>
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="102"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="102"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="102"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="102"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+    </row>
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="102"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+    </row>
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="102"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+    </row>
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="102"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="102"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+    </row>
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="102"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+    </row>
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="102"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+    </row>
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="102"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+    </row>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="102"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="102"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+    </row>
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="102"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+    </row>
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="102"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+    </row>
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="102"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+    </row>
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="102"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+    </row>
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="102"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+    </row>
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="102"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+    </row>
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="102"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+    </row>
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="102"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+    </row>
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="102"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+    </row>
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="102"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+    </row>
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="102"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+    </row>
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="102"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
+    </row>
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="102"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+    </row>
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="102"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
+    </row>
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="102"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+    </row>
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="102"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="103"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103"/>
+    </row>
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="102"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="103"/>
+    </row>
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="102"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
+    </row>
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="102"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="103"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+    </row>
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="102"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+    </row>
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="102"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="103"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+    </row>
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="102"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="103"/>
+    </row>
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="102"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+    </row>
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="102"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+    </row>
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="102"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="103"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="103"/>
+    </row>
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="102"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+    </row>
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="102"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="103"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+    </row>
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="102"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+    </row>
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="102"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="103"/>
+    </row>
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="102"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="103"/>
+      <c r="D98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="103"/>
+    </row>
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="102"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="103"/>
+    </row>
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="102"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="103"/>
+    </row>
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="102"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+    </row>
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="102"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="103"/>
+    </row>
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="102"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+    </row>
+    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="102"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
+    </row>
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="102"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
+    </row>
+    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="102"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+    </row>
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="102"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+    </row>
+    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="102"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+    </row>
+    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="102"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+    </row>
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="102"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="103"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FA5741A-8558-274F-87A6-75189287748A}">
+          <x14:formula1>
+            <xm:f>Phase0!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01440D2E-D5CB-624F-A307-D0DE876488BF}">
   <dimension ref="A1:D19"/>
   <sheetViews>

--- a/sample_data/acl-protocol-criteria-2025.xlsx
+++ b/sample_data/acl-protocol-criteria-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA69C0A-8065-B140-98EA-00CA26F7B59D}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D771CD83-D5C5-F14D-BF0A-AE9DBE231BEE}"/>
   <bookViews>
     <workbookView xWindow="-3540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Phase0" sheetId="2" r:id="rId2"/>
     <sheet name="criteria_full" sheetId="5" r:id="rId3"/>
-    <sheet name="phase0_collect" sheetId="4" r:id="rId4"/>
-    <sheet name="calcs" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="phase0_collect" sheetId="4" r:id="rId5"/>
+    <sheet name="calcs" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8800,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3C897E-C35E-744B-BB5A-048B2D3C5B40}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9005,238 +9006,258 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="100">
-        <v>2</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="100">
-        <v>2</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100">
-        <v>2</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100">
-        <v>2</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="81"/>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="100">
-        <v>2</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="81"/>
-    </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="100">
-        <v>2</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="100">
-        <v>2</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="100">
-        <v>2</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100">
-        <v>2</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100">
-        <v>2</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100">
-        <v>2</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="81"/>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="100">
-        <v>2</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="81"/>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="100">
-        <v>2</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="81"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100">
-        <v>2</v>
-      </c>
-      <c r="B25" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="100">
-        <v>2</v>
-      </c>
-      <c r="B26" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="99" t="s">
-        <v>199</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80124898-5C1F-5248-8006-92D5689A5FC6}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="340" x14ac:dyDescent="0.2">
+      <c r="B2" s="100">
+        <v>2</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="B3" s="100">
+        <v>2</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B4" s="100">
+        <v>2</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="B5" s="100">
+        <v>2</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="B6" s="100">
+        <v>2</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B7" s="100">
+        <v>2</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="100">
+        <v>2</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="100">
+        <v>2</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="100">
+        <v>2</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="B11" s="100">
+        <v>2</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="100">
+        <v>2</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="100">
+        <v>2</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="100">
+        <v>2</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="92"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="100">
+        <v>2</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+    </row>
+    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="100">
+        <v>2</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A129E5C-0389-B74D-99E5-9562F8E3B4E4}">
   <dimension ref="A1:M110"/>
   <sheetViews>
@@ -10438,7 +10459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01440D2E-D5CB-624F-A307-D0DE876488BF}">
   <dimension ref="A1:D19"/>
   <sheetViews>

--- a/sample_data/acl-protocol-criteria-2025.xlsx
+++ b/sample_data/acl-protocol-criteria-2025.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D771CD83-D5C5-F14D-BF0A-AE9DBE231BEE}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="13_ncr:1_{470AE8F2-12FF-4247-93B1-32004E222A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E35E1-6161-8A49-B96F-D402C6DB88A0}"/>
   <bookViews>
-    <workbookView xWindow="-3540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3440" yWindow="-20980" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Phase0" sheetId="2" r:id="rId2"/>
     <sheet name="criteria_full" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="phase0_collect" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="calcs" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -498,10 +498,27 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Andrew K:
-﻿Subjects stand on one foot on the edge of the step and perform a calf raise through full range of motion. Calf raises are performed at 1 repetition every 2 seconds. The test concludes when subjects are unable to move through full range or slow below the cadence outlined above.</t>
+          <t xml:space="preserve">Andrew K:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>﻿</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Subjects stand on one foot on the edge of the step and perform a calf raise through full range of motion. Calf raises are performed at 1 repetition every 2 seconds. The test concludes when subjects are unable to move through full range or slow below the cadence outlined above.</t>
         </r>
       </text>
     </comment>
@@ -778,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="243">
   <si>
     <t>Phase 0: Pre Surgery</t>
   </si>
@@ -1330,42 +1347,6 @@
     <t>Mean of all reps</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Involved_1</t>
-  </si>
-  <si>
-    <t>Involved_2</t>
-  </si>
-  <si>
-    <t>Involved_3</t>
-  </si>
-  <si>
-    <t>Involved_4</t>
-  </si>
-  <si>
-    <t>Involved_5</t>
-  </si>
-  <si>
-    <t>Uninvolved_1</t>
-  </si>
-  <si>
-    <t>Uninvolved_2</t>
-  </si>
-  <si>
-    <t>Uninvolved_3</t>
-  </si>
-  <si>
-    <t>Uninvolved_4</t>
-  </si>
-  <si>
-    <t>Uninvolved_5</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -1457,6 +1438,120 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Y-Balance (Anterior)</t>
+  </si>
+  <si>
+    <t>Y-Balance (Postero-Medial)</t>
+  </si>
+  <si>
+    <t>Y-Balance (Postero-Lateral)</t>
+  </si>
+  <si>
+    <t>For a subject to be rated “good”; 
+• Maintain balance 
+• Perform the movement smoothly 
+• Squat must be to at least 60 degrees 
+• No trunk movement (lateral deviation, rotation, lateral flexion, forward flexion)
+• No pelvic movement (shunt or lateral deviation, rotation, or tilt)
+• No hip adduction or internal rotation 
+• No knee valgus 
+• Centre of knee remains over centre of foot</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Subjects stand on one leg on a 20cm box with arms crossed. 
+5 x single leg squats are performed in a slow controlled manner (at a rate of 2 seconds per squat). 
+The task is rated as “good”, “fair” or “poor”. </t>
+  </si>
+  <si>
+    <t>﻿Subjects lie supine on the floor with one heel on a 60cm (~24") high box. The knee of the test leg is slightly bent at 20° and opposite leg is bent to 90° hip and knee flexion with their arms crossed over chest. Subjects elevate the hips as high as possible and the assessor places a target at this height. Repeat this action as many times as possible touching the target each time. The test concludes when the subject is unable to bridge to the target ﻿(Freckleton et al, 2013).</t>
+  </si>
+  <si>
+    <t>Input the number of reps completed.  The goal is &gt;20 reps and injured leg reps &gt;85% of un-injured leg.</t>
+  </si>
+  <si>
+    <t>Input the amount of time the position is held.  The goal is &gt;30 seconds and injured side tima &gt;85% of un-injured side.</t>
+  </si>
+  <si>
+    <t>Input the number of reps completed.  The goal is &gt;10 reps and injured leg reps &gt;85% of un-injured leg.</t>
+  </si>
+  <si>
+    <t>﻿Subjects stand on one foot on the edge of a step and performs a calf raise through full range of motion. Calf raises are performed at 1 repetition every 2 seconds. The test concludes when subjects are unable to move through full range or slow below the cadence outlined above (Hebert et al, 2017).</t>
+  </si>
+  <si>
+    <t>﻿Subjects lie on an exercise mat on their side with legs extended. The top foot is placed in front on the lower foot, then subjects lift their hips off the mat to maintain a straight line over their full body length for as long as able. The test ends when the hips return to the mat (McGill et al, 1999).</t>
+  </si>
+  <si>
+    <t>Single Leg Rise</t>
+  </si>
+  <si>
+    <t>﻿Subjects sit on a box with the test heel 10cm from the edge of the box and the box height set so that the test leg is bent to 90deg.
+With hands folded across the chest, the subject aims to stand up from the sitting position, and sit down as many times as possible (Culvenor et al., 2016 &amp; Thorstensson et al., 2004).</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>SL Balance (eyes open)</t>
+  </si>
+  <si>
+    <t>SL Balance (eyes closed)</t>
+  </si>
+  <si>
+    <t>﻿Subjects stand on one leg with other leg raised and arms crossed over the chest. The assessor uses a stopwatch to time how long stance is maintained with eyes open (Springer et al, 2007).</t>
+  </si>
+  <si>
+    <t>﻿Subjects stand on one leg with other leg raised and arms crossed over the chest. The assessor uses a stopwatch to time how long stance is maintained with eyes closed (Springer et al, 2007).</t>
+  </si>
+  <si>
+    <t>Time ends when; 
+• Arms are uncrossed 
+• Opposite foot touches the floor
+• Movement of the stance foot 
+• 45 secs has elapsed (maximum time)</t>
+  </si>
+  <si>
+    <t>Time ends when; 
+• Arms are uncrossed 
+• Opposite foot touches the floor
+• Movement of the stance foot 
+• 9 secs has elapsed (maximum time) 
+• Eyes are opened</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>TrapBar Deadlift</t>
+  </si>
+  <si>
+    <t>Set up the TrapBar on a lifting platform, using blocks as needed so that the subject's knees are flexed to 90 degrees when placing tension on the bar without lifting it.
+Progressively perform single repetitions until a 1RM is established.</t>
+  </si>
+  <si>
+    <t>Record the maximum load in kg.
+The target load for graduation from this phase is 1.5x BM.
+This criteria may vary based on initial training status pre-injury.</t>
+  </si>
+  <si>
+    <t>Fortius</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Seated with hip and knees flexed at 90°.  Dynamometer placed on the anterior aspect of the shank, proximal to the ankle joint.
+Target score to complete this phase is 75% LSI compared to un-injured leg.</t>
+  </si>
+  <si>
+    <t>Knee to Wall Test</t>
+  </si>
+  <si>
+    <t>Injured side dorsiflexion should be &gt; 10cm and &gt; 90% of un-injured side.</t>
   </si>
 </sst>
 </file>
@@ -1467,11 +1562,18 @@
     <numFmt numFmtId="164" formatCode="mmm\ d/yy"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1664,28 +1766,19 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Arial (Body)"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial (Body)"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Arial (Body)"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,14 +1821,8 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1925,301 +2012,343 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2439,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1013"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:E68"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2479,13 +2608,13 @@
     </row>
     <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2543,7 +2672,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="105" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="14"/>
@@ -2576,7 +2705,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="114"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="R5" s="20">
@@ -2604,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="114"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="R6" s="20">
@@ -2628,7 +2757,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="114"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="S7" s="21"/>
@@ -2651,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="114"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="R8" s="20">
@@ -2679,7 +2808,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="114"/>
+      <c r="G9" s="103"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="R9" s="20">
@@ -2762,13 +2891,13 @@
     </row>
     <row r="15" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
       <c r="G15" s="1"/>
       <c r="H15" s="25" t="s">
         <v>34</v>
@@ -2823,24 +2952,24 @@
       <c r="G16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="114">
         <v>45359</v>
       </c>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117">
+      <c r="I16" s="113"/>
+      <c r="J16" s="115">
         <v>47204</v>
       </c>
-      <c r="K16" s="116"/>
-      <c r="L16" s="118" t="s">
+      <c r="K16" s="113"/>
+      <c r="L16" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="116"/>
-      <c r="N16" s="115">
+      <c r="M16" s="113"/>
+      <c r="N16" s="114">
         <v>45429</v>
       </c>
-      <c r="O16" s="116"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="20">
         <v>1</v>
       </c>
@@ -2914,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="105" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="31"/>
@@ -2958,7 +3087,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="114"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="36"/>
       <c r="I19" s="37">
         <v>45325</v>
@@ -2996,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="114"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="36">
         <v>39</v>
       </c>
@@ -3042,7 +3171,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="114"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="31"/>
       <c r="I21" s="34" t="s">
         <v>52</v>
@@ -3078,7 +3207,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="114"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="31"/>
       <c r="I22" s="34" t="s">
         <v>52</v>
@@ -3116,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="114"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="36"/>
       <c r="I23" s="38">
         <v>91</v>
@@ -3156,7 +3285,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="114"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="31" t="s">
         <v>60</v>
       </c>
@@ -3347,13 +3476,13 @@
     </row>
     <row r="32" spans="1:22" ht="23" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="1"/>
       <c r="H32" s="42" t="s">
         <v>34</v>
@@ -3398,12 +3527,12 @@
       <c r="G33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="120" t="s">
+      <c r="H33" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="116"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="113"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -3428,7 +3557,7 @@
         <v>22</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="119" t="s">
+      <c r="G34" s="105" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="44"/>
@@ -3459,7 +3588,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="114"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
       <c r="J35" s="48"/>
@@ -3488,7 +3617,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="114"/>
+      <c r="G36" s="103"/>
       <c r="H36" s="44"/>
       <c r="I36" s="45"/>
       <c r="J36" s="44"/>
@@ -3517,7 +3646,7 @@
         <v>77</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="114"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="48"/>
       <c r="I37" s="49"/>
       <c r="J37" s="48"/>
@@ -3546,7 +3675,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="114"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
       <c r="J38" s="44"/>
@@ -3567,7 +3696,7 @@
         <v>81</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="114"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
       <c r="J39" s="44"/>
@@ -3596,7 +3725,7 @@
         <v>80</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="114"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="48"/>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
@@ -3617,7 +3746,7 @@
         <v>81</v>
       </c>
       <c r="F41" s="12"/>
-      <c r="G41" s="114"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="48"/>
       <c r="I41" s="49"/>
       <c r="J41" s="48"/>
@@ -3646,7 +3775,7 @@
         <v>80</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="114"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="44"/>
       <c r="I42" s="45"/>
       <c r="J42" s="44"/>
@@ -3667,7 +3796,7 @@
         <v>86</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="114"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="55" t="s">
         <v>87</v>
       </c>
@@ -3690,17 +3819,17 @@
       <c r="B44" s="16">
         <v>8</v>
       </c>
-      <c r="C44" s="121" t="s">
+      <c r="C44" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="121" t="s">
+      <c r="D44" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="114"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="48"/>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
@@ -3715,13 +3844,13 @@
     <row r="45" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
       <c r="E45" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="12"/>
-      <c r="G45" s="114"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="48"/>
       <c r="I45" s="49"/>
       <c r="J45" s="48"/>
@@ -3750,7 +3879,7 @@
         <v>92</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="114"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
       <c r="J46" s="44"/>
@@ -3771,7 +3900,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="114"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
       <c r="J47" s="44"/>
@@ -3800,7 +3929,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="114"/>
+      <c r="G48" s="103"/>
       <c r="H48" s="48"/>
       <c r="I48" s="49"/>
       <c r="J48" s="48"/>
@@ -3829,7 +3958,7 @@
         <v>96</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="114"/>
+      <c r="G49" s="103"/>
       <c r="H49" s="44"/>
       <c r="I49" s="45"/>
       <c r="J49" s="44"/>
@@ -3856,7 +3985,7 @@
         <v>101</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="114"/>
+      <c r="G50" s="103"/>
       <c r="H50" s="48"/>
       <c r="I50" s="49"/>
       <c r="J50" s="48"/>
@@ -3952,10 +4081,10 @@
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="126">
+      <c r="B54" s="102">
         <v>16</v>
       </c>
-      <c r="C54" s="127" t="s">
+      <c r="C54" s="107" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="17"/>
@@ -3976,8 +4105,8 @@
     </row>
     <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="17"/>
       <c r="E55" s="18"/>
       <c r="F55" s="12"/>
@@ -3996,10 +4125,10 @@
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="122">
+      <c r="B56" s="108">
         <v>17</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="110" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="57"/>
@@ -4021,8 +4150,8 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="123"/>
-      <c r="C57" s="125"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
@@ -4042,10 +4171,10 @@
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="126">
+      <c r="B58" s="102">
         <v>18</v>
       </c>
-      <c r="C58" s="127" t="s">
+      <c r="C58" s="107" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="17"/>
@@ -4066,8 +4195,8 @@
     </row>
     <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="17"/>
       <c r="E59" s="18"/>
       <c r="F59" s="12"/>
@@ -4086,10 +4215,10 @@
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="122">
+      <c r="B60" s="108">
         <v>19</v>
       </c>
-      <c r="C60" s="124" t="s">
+      <c r="C60" s="110" t="s">
         <v>114</v>
       </c>
       <c r="D60" s="57"/>
@@ -4111,8 +4240,8 @@
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="123"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
@@ -4132,7 +4261,7 @@
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="126">
+      <c r="B62" s="102">
         <v>20</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -4156,7 +4285,7 @@
     </row>
     <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="114"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
@@ -4332,13 +4461,13 @@
     </row>
     <row r="74" spans="1:17" ht="23" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
-      <c r="B74" s="113" t="s">
+      <c r="B74" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
       <c r="G74" s="1"/>
       <c r="H74" s="42" t="s">
         <v>34</v>
@@ -4417,7 +4546,7 @@
       <c r="F76" s="67">
         <v>1</v>
       </c>
-      <c r="G76" s="119" t="s">
+      <c r="G76" s="105" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="31">
@@ -4444,7 +4573,7 @@
       <c r="F77" s="67">
         <v>2</v>
       </c>
-      <c r="G77" s="114"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="31">
         <v>141</v>
       </c>
@@ -4469,7 +4598,7 @@
       <c r="F78" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="G78" s="114"/>
+      <c r="G78" s="103"/>
       <c r="H78" s="31">
         <f t="shared" ref="H78:I78" si="0">AVERAGE(H76:H77)</f>
         <v>127</v>
@@ -4496,7 +4625,7 @@
       <c r="F79" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="G79" s="114"/>
+      <c r="G79" s="103"/>
       <c r="H79" s="70">
         <f>I78/H78</f>
         <v>0.59842519685039375</v>
@@ -4528,7 +4657,7 @@
         <v>126</v>
       </c>
       <c r="F80" s="12"/>
-      <c r="G80" s="114"/>
+      <c r="G80" s="103"/>
       <c r="H80" s="36"/>
       <c r="I80" s="38"/>
       <c r="J80" s="74"/>
@@ -4557,7 +4686,7 @@
         <v>126</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="114"/>
+      <c r="G81" s="103"/>
       <c r="H81" s="31"/>
       <c r="I81" s="34"/>
       <c r="J81" s="72"/>
@@ -4586,7 +4715,7 @@
         <v>126</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="114"/>
+      <c r="G82" s="103"/>
       <c r="H82" s="36"/>
       <c r="I82" s="38"/>
       <c r="J82" s="74"/>
@@ -4615,7 +4744,7 @@
         <v>134</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="114"/>
+      <c r="G83" s="103"/>
       <c r="H83" s="31"/>
       <c r="I83" s="34"/>
       <c r="J83" s="72"/>
@@ -4644,7 +4773,7 @@
         <v>126</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="114"/>
+      <c r="G84" s="103"/>
       <c r="H84" s="36"/>
       <c r="I84" s="38"/>
       <c r="J84" s="74"/>
@@ -4673,7 +4802,7 @@
         <v>138</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="114"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="31"/>
       <c r="I85" s="34"/>
       <c r="J85" s="72"/>
@@ -4702,7 +4831,7 @@
         <v>140</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="114"/>
+      <c r="G86" s="103"/>
       <c r="H86" s="36"/>
       <c r="I86" s="38"/>
       <c r="J86" s="74"/>
@@ -4731,7 +4860,7 @@
         <v>140</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="114"/>
+      <c r="G87" s="103"/>
       <c r="H87" s="31"/>
       <c r="I87" s="34"/>
       <c r="J87" s="72"/>
@@ -8477,6 +8606,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G34:G50"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="G76:G87"/>
@@ -8487,22 +8632,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G34:G50"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8801,33 +8930,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3C897E-C35E-744B-BB5A-048B2D3C5B40}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="100"/>
-    <col min="2" max="2" width="23.5" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="99"/>
-    <col min="4" max="4" width="73.1640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="116" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="99"/>
+    <col min="1" max="1" width="10.83203125" style="99"/>
+    <col min="2" max="2" width="23.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="98"/>
+    <col min="4" max="4" width="73.1640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
-        <v>194</v>
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="101" t="s">
+        <v>182</v>
       </c>
       <c r="B1" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="111" t="s">
-        <v>195</v>
+      <c r="C1" s="100" t="s">
+        <v>183</v>
       </c>
       <c r="D1" s="82" t="s">
         <v>148</v>
@@ -8835,16 +8964,19 @@
       <c r="E1" s="82" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100">
+      <c r="F1" s="100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="99">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="99" t="s">
-        <v>196</v>
+      <c r="C2" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="D2" s="92" t="s">
         <v>180</v>
@@ -8852,16 +8984,19 @@
       <c r="E2" s="81" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="100">
+      <c r="F2" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="99">
         <v>0</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="99" t="s">
-        <v>196</v>
+      <c r="C3" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="D3" s="92" t="s">
         <v>180</v>
@@ -8869,16 +9004,19 @@
       <c r="E3" s="81" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="F3" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="99">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="99" t="s">
-        <v>197</v>
+      <c r="C4" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>177</v>
@@ -8886,16 +9024,19 @@
       <c r="E4" s="91" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100">
+      <c r="F4" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="99">
         <v>0</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>198</v>
+      <c r="C5" s="98" t="s">
+        <v>186</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>157</v>
@@ -8903,16 +9044,19 @@
       <c r="E5" s="92" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100">
+      <c r="F5" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="99">
         <v>0</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>198</v>
+      <c r="C6" s="98" t="s">
+        <v>186</v>
       </c>
       <c r="D6" s="81" t="s">
         <v>157</v>
@@ -8920,16 +9064,19 @@
       <c r="E6" s="92" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
+      <c r="F6" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99">
         <v>0</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>199</v>
+      <c r="C7" s="98" t="s">
+        <v>187</v>
       </c>
       <c r="D7" s="81" t="s">
         <v>163</v>
@@ -8937,33 +9084,39 @@
       <c r="E7" s="81" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100">
+      <c r="F7" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="133" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="131">
         <v>1</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="92" t="s">
+      <c r="C8" s="133" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="135" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100">
+      <c r="F8" s="133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="99">
         <v>1</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>196</v>
+      <c r="C9" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>180</v>
@@ -8971,16 +9124,19 @@
       <c r="E9" s="81" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="100">
+      <c r="F9" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="99">
         <v>1</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="99" t="s">
-        <v>197</v>
+      <c r="C10" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>177</v>
@@ -8988,22 +9144,350 @@
       <c r="E10" s="81" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100">
+      <c r="F10" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>201</v>
+      <c r="B11" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>189</v>
       </c>
       <c r="D11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="133" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="131">
+        <v>2</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="99">
+        <v>2</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="99">
+        <v>2</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="99">
+        <v>2</v>
+      </c>
+      <c r="B15" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="F15" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="99">
+        <v>2</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="99">
+        <v>2</v>
+      </c>
+      <c r="B17" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="99">
+        <v>2</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="99">
+        <v>2</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="99">
+        <v>2</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="99">
+        <v>2</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="99">
+        <v>2</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="99">
+        <v>2</v>
+      </c>
+      <c r="B23" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="99">
+        <v>2</v>
+      </c>
+      <c r="B24" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="99">
+        <v>2</v>
+      </c>
+      <c r="B25" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="99">
+        <v>2</v>
+      </c>
+      <c r="B26" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="99">
+        <v>2</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="99">
+        <v>2</v>
+      </c>
+      <c r="B28" s="122" t="s">
         <v>215</v>
+      </c>
+      <c r="C28" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="98" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -9012,6 +9496,165 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9BD343-8327-2B43-A044-910E263A1831}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="121" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="22.33203125" style="121" customWidth="1"/>
+    <col min="9" max="9" width="55.5" style="121" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="129"/>
+      <c r="B2" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="128"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="130"/>
+      <c r="B4" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="124"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="120"/>
+      <c r="B5" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="120"/>
+      <c r="B6" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="126"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="120"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="120"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80124898-5C1F-5248-8006-92D5689A5FC6}">
   <dimension ref="B2:F16"/>
   <sheetViews>
@@ -9022,31 +9665,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:6" ht="340" x14ac:dyDescent="0.2">
-      <c r="B2" s="100">
+      <c r="B2" s="99">
         <v>2</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="99" t="s">
-        <v>196</v>
+      <c r="D2" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="E2" s="92" t="s">
         <v>73</v>
       </c>
       <c r="F2" s="81" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="B3" s="100">
+      <c r="B3" s="99">
         <v>2</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="99" t="s">
-        <v>196</v>
+      <c r="D3" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>180</v>
@@ -9056,14 +9699,14 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B4" s="100">
+      <c r="B4" s="99">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="99" t="s">
-        <v>197</v>
+      <c r="D4" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>177</v>
@@ -9073,27 +9716,27 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B5" s="100">
+      <c r="B5" s="99">
         <v>2</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="99"/>
+      <c r="C5" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="98"/>
       <c r="E5" s="92" t="s">
         <v>76</v>
       </c>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="2:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="B6" s="100">
+      <c r="B6" s="99">
         <v>2</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>211</v>
+      <c r="C6" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>199</v>
       </c>
       <c r="E6" s="92" t="s">
         <v>88</v>
@@ -9101,1361 +9744,159 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B7" s="100">
+      <c r="B7" s="99">
         <v>2</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>211</v>
+      <c r="C7" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>199</v>
       </c>
       <c r="E7" s="92" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="81" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>211</v>
+      <c r="C8" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>199</v>
       </c>
       <c r="E8" s="92" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="81" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B9" s="100">
+      <c r="B9" s="99">
         <v>2</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>212</v>
+      <c r="C9" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>200</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F9" s="81" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B10" s="100">
+      <c r="B10" s="99">
         <v>2</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>213</v>
+      <c r="D10" s="98" t="s">
+        <v>201</v>
       </c>
       <c r="E10" s="92" t="s">
         <v>95</v>
       </c>
       <c r="F10" s="81" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="B11" s="100">
+      <c r="B11" s="99">
         <v>2</v>
       </c>
-      <c r="C11" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>213</v>
+      <c r="C11" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>201</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="100">
+      <c r="B12" s="99">
         <v>2</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="99" t="s">
-        <v>197</v>
+      <c r="D12" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F12" s="81"/>
     </row>
     <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="100">
+      <c r="B13" s="99">
         <v>2</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="99" t="s">
-        <v>197</v>
+      <c r="D13" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="E13" s="92"/>
       <c r="F13" s="81"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="100">
+      <c r="B14" s="99">
         <v>2</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>199</v>
+      <c r="C14" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>187</v>
       </c>
       <c r="E14" s="92"/>
       <c r="F14" s="81"/>
     </row>
     <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="100">
+      <c r="B15" s="99">
         <v>2</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="C15" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
     </row>
     <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B16" s="100">
+      <c r="B16" s="99">
         <v>2</v>
       </c>
-      <c r="C16" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="C16" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A129E5C-0389-B74D-99E5-9562F8E3B4E4}">
-  <dimension ref="A1:M110"/>
-  <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="110" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="100">
-        <v>1</v>
-      </c>
-      <c r="C2" s="101">
-        <v>45839</v>
-      </c>
-      <c r="D2" s="100">
-        <v>102</v>
-      </c>
-      <c r="E2" s="100">
-        <v>125</v>
-      </c>
-      <c r="I2" s="100">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="100">
-        <v>2</v>
-      </c>
-      <c r="C3" s="101">
-        <v>45853</v>
-      </c>
-      <c r="D3" s="100">
-        <v>107</v>
-      </c>
-      <c r="E3" s="100">
-        <v>125</v>
-      </c>
-      <c r="I3" s="100">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="100">
-        <v>3</v>
-      </c>
-      <c r="C4" s="101">
-        <v>45870</v>
-      </c>
-      <c r="D4" s="100">
-        <v>115</v>
-      </c>
-      <c r="E4" s="100">
-        <v>125</v>
-      </c>
-      <c r="I4" s="100">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="100">
-        <v>4</v>
-      </c>
-      <c r="C5" s="101">
-        <v>45884</v>
-      </c>
-      <c r="D5" s="100">
-        <v>121</v>
-      </c>
-      <c r="E5" s="100">
-        <v>125</v>
-      </c>
-      <c r="I5" s="100">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="100">
-        <v>5</v>
-      </c>
-      <c r="C6" s="101">
-        <v>45901</v>
-      </c>
-      <c r="D6" s="100">
-        <v>126</v>
-      </c>
-      <c r="E6" s="100">
-        <v>125</v>
-      </c>
-      <c r="I6" s="100">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="100">
-        <v>9</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-    </row>
-    <row r="11" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="100">
-        <v>10</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-    </row>
-    <row r="12" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="100">
-        <v>11</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-    </row>
-    <row r="13" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="100">
-        <v>12</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-    </row>
-    <row r="14" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="100">
-        <v>13</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-    </row>
-    <row r="15" spans="1:13" s="99" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="100">
-        <v>14</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="100">
-        <v>15</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="100">
-        <v>1</v>
-      </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-    </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="100">
-        <v>2</v>
-      </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="100">
-        <v>3</v>
-      </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-    </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="100">
-        <v>4</v>
-      </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-    </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="100">
-        <v>5</v>
-      </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="100">
-        <v>6</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-    </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="100">
-        <v>7</v>
-      </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="100">
-        <v>8</v>
-      </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="100">
-        <v>9</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="100">
-        <v>10</v>
-      </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-    </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="100">
-        <v>11</v>
-      </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="100">
-        <v>12</v>
-      </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="100">
-        <v>13</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="100">
-        <v>14</v>
-      </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-    </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="100">
-        <v>15</v>
-      </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="102"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="102"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="102"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="102"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-    </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="102"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="102"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-    </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-    </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-    </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="102"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-    </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="102"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="102"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="102"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="102"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-    </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="102"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="102"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="102"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="102"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="102"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="102"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="102"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-    </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="102"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="102"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="102"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="102"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="102"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-    </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="102"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-    </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="102"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-    </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="102"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-    </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="102"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-    </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="102"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-    </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="102"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="102"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="102"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="102"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="102"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-    </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="102"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-    </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="102"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-    </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="102"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="102"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103"/>
-    </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="102"/>
-      <c r="B85" s="100"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-    </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="102"/>
-      <c r="B86" s="100"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
-    </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="102"/>
-      <c r="B87" s="100"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103"/>
-    </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="102"/>
-      <c r="B88" s="100"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-    </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
-      <c r="B89" s="100"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="103"/>
-      <c r="E89" s="103"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-    </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="102"/>
-      <c r="B90" s="100"/>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-    </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="102"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-    </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="102"/>
-      <c r="B92" s="100"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="103"/>
-    </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="102"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="103"/>
-      <c r="G93" s="103"/>
-    </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="102"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="103"/>
-    </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="102"/>
-      <c r="B95" s="100"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="103"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="103"/>
-      <c r="G95" s="103"/>
-    </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="102"/>
-      <c r="B96" s="100"/>
-      <c r="C96" s="103"/>
-      <c r="D96" s="103"/>
-      <c r="E96" s="103"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
-    </row>
-    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="102"/>
-      <c r="B97" s="100"/>
-      <c r="C97" s="103"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="103"/>
-    </row>
-    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="102"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="103"/>
-      <c r="D98" s="103"/>
-      <c r="E98" s="103"/>
-      <c r="F98" s="103"/>
-      <c r="G98" s="103"/>
-    </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="102"/>
-      <c r="B99" s="100"/>
-      <c r="C99" s="103"/>
-      <c r="D99" s="103"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="103"/>
-      <c r="G99" s="103"/>
-    </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="102"/>
-      <c r="B100" s="100"/>
-      <c r="C100" s="103"/>
-      <c r="D100" s="103"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="103"/>
-      <c r="G100" s="103"/>
-    </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="102"/>
-      <c r="B101" s="100"/>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103"/>
-    </row>
-    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="102"/>
-      <c r="B102" s="100"/>
-      <c r="C102" s="103"/>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="103"/>
-    </row>
-    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="102"/>
-      <c r="B103" s="100"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
-    </row>
-    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="102"/>
-      <c r="B104" s="100"/>
-      <c r="C104" s="103"/>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="103"/>
-    </row>
-    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="102"/>
-      <c r="B105" s="100"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="103"/>
-      <c r="G105" s="103"/>
-    </row>
-    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="102"/>
-      <c r="B106" s="100"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-    </row>
-    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="102"/>
-      <c r="B107" s="100"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="103"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="103"/>
-      <c r="G107" s="103"/>
-    </row>
-    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="102"/>
-      <c r="B108" s="100"/>
-      <c r="C108" s="103"/>
-      <c r="D108" s="103"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="103"/>
-    </row>
-    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="102"/>
-      <c r="B109" s="100"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="103"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103"/>
-      <c r="G109" s="103"/>
-    </row>
-    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="102"/>
-      <c r="B110" s="100"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="103"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FA5741A-8558-274F-87A6-75189287748A}">
-          <x14:formula1>
-            <xm:f>Phase0!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
